--- a/biology/Mycologie/Hygrophore_cochenille/Hygrophore_cochenille.xlsx
+++ b/biology/Mycologie/Hygrophore_cochenille/Hygrophore_cochenille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hygrocybe coccinea
 L'hygrocybe cochenille (Hygrocybe coccinea) est un champignon basidiomycète de la famille des Hygrophoraceae
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chapeau 2 à 5 cm, conique puis plus étalé, rouge vif, visqueux par temps humide
 Lames espacées, rouges bordées de jaune
@@ -546,7 +560,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plutôt sur terrain dégagé, en automne, voire au début de l'hiver dans les régions méditerranéennes.
 </t>
@@ -577,7 +593,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des auteurs l'indiquent comme comestible sans intérêt, notamment du fait de sa faible taille. Comme il n'est pas fréquent, on pourra se contenter d'admirer ses jolies couleurs.
 </t>
@@ -608,7 +626,9 @@
           <t>Espèces proches</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hygrocybe rouge ponceau (Hygrocybe punicea), quasi-synonyme
 Hygrocybe miniata
